--- a/biology/Botanique/Sideritis_romana/Sideritis_romana.xlsx
+++ b/biology/Botanique/Sideritis_romana/Sideritis_romana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La crapaudine de Rome, Sideritis romana est une espèce de plante annuelle de la famille des Lamiaceae[1] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La crapaudine de Rome, Sideritis romana est une espèce de plante annuelle de la famille des Lamiaceae .
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Burgsdorfia rigida Moench
 Burgsdorfia romana (L.) Hoffmanns. &amp; Link
@@ -548,7 +562,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sideritis romana subsp. curvidens (Stapf) Holmboe
 Sideritis romana subsp. purpurea (Talbot ex Benth.) Heywood</t>
@@ -579,7 +595,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plante annuelle haute de 10 à 30 cm,  mollement velue, à racine grêle, à tiges simples ou rameuses à la base
 Feuilles ovales-oblongues, vertes, velues, à dents robustes et assez nombreuses
@@ -611,7 +629,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bassin méditerranéen, 
 </t>
